--- a/QueueTestData.xlsx
+++ b/QueueTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyanka/eclipse-workspace/Z_DS-Algo_BDD/src/main/resources/excelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C97A7-F866-F14D-87B5-FC6CFA901532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E0503-B0EF-8941-803B-BA93201D7E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{F3A24FB5-B298-B04F-A20E-0D430A4B45B8}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" activeTab="1" xr2:uid="{F3A24FB5-B298-B04F-A20E-0D430A4B45B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pythoncode" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>pythonCode</t>
   </si>
@@ -412,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5899C925-79F7-D041-8D44-90DEA8B4987D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,4 +450,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF197D-B219-BA4B-A1D2-3B8C550A8D2E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QueueTestData.xlsx
+++ b/QueueTestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyanka/eclipse-workspace/Z_DS-Algo_BDD/src/main/resources/excelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyanka/eclipse-workspace/Z_DS-Algo_BDD/src/test/resources/Excel_Register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E0503-B0EF-8941-803B-BA93201D7E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DAAA4B-6442-1346-9E81-3727CA08869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" activeTab="1" xr2:uid="{F3A24FB5-B298-B04F-A20E-0D430A4B45B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pythoncode" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ValidPythonCode" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidPythonCode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>pythonCode</t>
   </si>
@@ -49,10 +49,10 @@
     <t>hello</t>
   </si>
   <si>
-    <t>Python is crap</t>
-  </si>
-  <si>
     <t>NameError: name 'Python' is not defined on line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python programming 123 </t>
   </si>
 </sst>
 </file>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5899C925-79F7-D041-8D44-90DEA8B4987D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,14 +439,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -457,10 +449,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -472,10 +468,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
